--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="deptmetn_login" sheetId="2" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="del_department" sheetId="9" r:id="rId7"/>
     <sheet name="check_add_department" sheetId="10" r:id="rId8"/>
     <sheet name="check_edit_department" sheetId="11" r:id="rId9"/>
+    <sheet name="add_user" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
   <si>
     <t>测试点说明</t>
   </si>
@@ -167,10 +168,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>下移陈圆圆部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>上移lzy部门</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -296,6 +293,59 @@
   </si>
   <si>
     <t>test_F04_S01_T01_down_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test_F04_S02_add_001
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>下移gyr部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +403,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +438,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -410,6 +481,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -420,7 +502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +547,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -769,7 +866,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -807,7 +904,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
@@ -833,11 +930,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5">
+      <c r="A2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1153,10 +1318,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>25</v>
@@ -1165,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1344,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1210,10 +1375,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>26</v>
@@ -1222,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1233,21 +1398,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,91 +1422,112 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1391,10 +1577,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -1404,15 +1590,15 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -1421,18 +1607,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
@@ -1444,15 +1630,15 @@
         <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -1461,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1516,10 +1702,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -1528,18 +1714,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -1549,15 +1735,15 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
@@ -1569,15 +1755,15 @@
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -1586,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="deptmetn_login" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="83">
   <si>
     <t>测试点说明</t>
   </si>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>执行操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑时填写非法字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1059,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1213,6 +1217,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,7 +1248,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1285,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1333,6 +1357,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,7 +1385,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1400,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1539,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1653,10 +1694,89 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1666,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="deptmetn_login" sheetId="2" r:id="rId1"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用户y正常登陆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>口令</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
   </si>
   <si>
     <t>test_F01_login_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -313,10 +305,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>账号</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -350,6 +338,18 @@
   </si>
   <si>
     <t>编辑时填写非法字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户xx正常登陆</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +870,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -887,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -904,20 +904,20 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -952,39 +952,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.5">
       <c r="A2" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1088,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -1159,19 +1159,19 @@
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
@@ -1179,19 +1179,19 @@
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
@@ -1199,19 +1199,19 @@
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
@@ -1219,22 +1219,22 @@
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1272,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1283,22 +1283,22 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1342,36 +1342,36 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="9">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1408,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1472,104 +1472,104 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1607,10 +1607,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1618,158 +1618,158 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1811,10 +1811,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1822,80 +1822,80 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -292,10 +292,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>添加用户</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>保存成功！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -351,6 +347,10 @@
   <si>
     <t>用户xx正常登陆</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户xx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -904,14 +904,14 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="21.95" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -939,7 +939,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -952,22 +952,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>67</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="2" spans="1:7" ht="40.5">
       <c r="A2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>64</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>64</v>
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>51</v>

--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -132,10 +132,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> test_F04_S01_T01_checkout_005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>123@￥%mdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -240,14 +236,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S01_T01_up_007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S01_T01_down_006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>下移gyr部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +245,18 @@
   </si>
   <si>
     <t>编辑时填写非法字符</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F04_S01_T01_checkout_004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T01_down_005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S01_T01_up_006</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +689,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,13 +871,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
@@ -904,7 +905,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
@@ -913,15 +914,15 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -930,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +945,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -966,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -991,10 +992,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -1008,10 +1009,10 @@
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -1042,10 +1043,10 @@
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -1059,10 +1060,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -1084,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1120,10 +1121,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1133,15 +1134,15 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1150,18 +1151,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -1173,15 +1174,15 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -1190,18 +1191,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -1210,18 +1211,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1231,15 +1232,15 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1251,15 +1252,15 @@
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1268,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/testData/department_test_data.xlsx
+++ b/testData/department_test_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>测试点说明</t>
   </si>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cyy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -64,54 +60,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>陈圆圆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加cyy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zlj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jyb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加jyb部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加zzf部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加gyr部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加lzy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加zlj部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修改成功！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -120,18 +68,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>删除陈圆圆部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上移lzy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除部门陈圆圆？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>123@￥%mdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -140,10 +76,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>添加重复的lzy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>hero@英雄.（0）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -156,10 +88,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>编辑的lzy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>asdfghjklzxcvbnmqwertyuiop123456789789poskicnfjxdsv</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -188,46 +116,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>确认删除部门zlj？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除部门lzy？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除部门gyr？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除部门zzf？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认删除部门jyb？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除zlj部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除lzy部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除gyr部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除zzf部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除jyb部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>当前部门不可上移!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,10 +124,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>下移gyr部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>执行操作</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +141,633 @@
   </si>
   <si>
     <t>test_F04_S01_T01_up_006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jh</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>添加l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确认删除部门l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上移t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下移w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加重复的wx部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑的yz部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +817,14 @@
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -361,7 +880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +904,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,7 +1214,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -721,8 +1246,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -734,15 +1259,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
+      <c r="A3" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -754,15 +1279,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -774,15 +1299,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
+      <c r="A5" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -793,16 +1318,16 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
+      <c r="A6" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
@@ -814,15 +1339,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
+      <c r="A7" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -833,8 +1358,8 @@
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -842,27 +1367,28 @@
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -871,7 +1397,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -901,37 +1427,37 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
+      <c r="A2" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
+      <c r="A3" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1471,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -967,112 +1493,112 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
+      <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1085,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1121,10 +1647,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1134,15 +1660,15 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1151,18 +1677,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -1170,19 +1696,19 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
+      <c r="E4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -1191,18 +1717,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -1211,18 +1737,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1232,35 +1758,35 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
+      <c r="E8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1269,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
